--- a/November'21/16.11.2021/Daily Sales Info.....xlsx
+++ b/November'21/16.11.2021/Daily Sales Info.....xlsx
@@ -25848,8 +25848,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26083,9 +26083,7 @@
       <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21">
-        <v>21514</v>
-      </c>
+      <c r="D7" s="21"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -26096,31 +26094,29 @@
       <c r="L7" s="23"/>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>21514</v>
+        <v>0</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>21514</v>
+        <v>0</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>591.63499999999999</v>
+        <v>0</v>
       </c>
       <c r="P7" s="26"/>
-      <c r="Q7" s="26">
-        <v>103</v>
-      </c>
+      <c r="Q7" s="26"/>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>20819.365000000002</v>
+        <v>0</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>204.38299999999998</v>
+        <v>0</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>101.38299999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -26179,9 +26175,7 @@
       <c r="C9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="29">
-        <v>19410</v>
-      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -26192,31 +26186,29 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>19410</v>
+        <v>0</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>19410</v>
+        <v>0</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>533.77499999999998</v>
+        <v>0</v>
       </c>
       <c r="P9" s="26"/>
-      <c r="Q9" s="26">
-        <v>106</v>
-      </c>
+      <c r="Q9" s="26"/>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>18770.224999999999</v>
+        <v>0</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>184.39499999999998</v>
+        <v>0</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="5"/>
-        <v>78.394999999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -26413,9 +26405,7 @@
       <c r="C14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="29">
-        <v>514</v>
-      </c>
+      <c r="D14" s="29"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
@@ -26426,29 +26416,29 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>14.135</v>
+        <v>0</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>499.86500000000001</v>
+        <v>0</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>4.883</v>
+        <v>0</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>4.883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -26461,9 +26451,7 @@
       <c r="C15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="29">
-        <v>38434</v>
-      </c>
+      <c r="D15" s="29"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -26474,31 +26462,29 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>38434</v>
+        <v>0</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>38434</v>
+        <v>0</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>1056.9349999999999</v>
+        <v>0</v>
       </c>
       <c r="P15" s="26"/>
-      <c r="Q15" s="26">
-        <v>278</v>
-      </c>
+      <c r="Q15" s="26"/>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>37099.065000000002</v>
+        <v>0</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>365.12299999999999</v>
+        <v>0</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>87.12299999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -26511,50 +26497,40 @@
       <c r="C16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="29">
-        <v>75283</v>
-      </c>
-      <c r="E16" s="30">
-        <v>10</v>
-      </c>
-      <c r="F16" s="30">
-        <v>40</v>
-      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="20">
-        <v>5</v>
-      </c>
+      <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>75883</v>
+        <v>0</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>76793</v>
+        <v>0</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>2086.7824999999998</v>
+        <v>0</v>
       </c>
       <c r="P16" s="26"/>
-      <c r="Q16" s="26">
-        <v>551</v>
-      </c>
+      <c r="Q16" s="26"/>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>74155.217499999999</v>
+        <v>0</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>720.88850000000002</v>
+        <v>0</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>169.88850000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -26567,13 +26543,9 @@
       <c r="C17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="29">
-        <v>22056</v>
-      </c>
+      <c r="D17" s="29"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="30">
-        <v>20</v>
-      </c>
+      <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="20"/>
@@ -26582,31 +26554,29 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>22256</v>
+        <v>0</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>22256</v>
+        <v>0</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>612.04</v>
+        <v>0</v>
       </c>
       <c r="P17" s="26"/>
-      <c r="Q17" s="26">
-        <v>144</v>
-      </c>
+      <c r="Q17" s="26"/>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>21499.96</v>
+        <v>0</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>211.43199999999999</v>
+        <v>0</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="5"/>
-        <v>67.431999999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -26711,9 +26681,7 @@
       <c r="C20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="29">
-        <v>1542</v>
-      </c>
+      <c r="D20" s="29"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -26724,29 +26692,29 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>42.405000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>1499.595</v>
+        <v>0</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>14.648999999999999</v>
+        <v>0</v>
       </c>
       <c r="T20" s="27">
         <f t="shared" si="5"/>
-        <v>14.648999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -26759,9 +26727,7 @@
       <c r="C21" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="29">
-        <v>21120</v>
-      </c>
+      <c r="D21" s="29"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
@@ -26772,31 +26738,29 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>21120</v>
+        <v>0</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>21120</v>
+        <v>0</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>580.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="P21" s="26"/>
-      <c r="Q21" s="26">
-        <v>40</v>
-      </c>
+      <c r="Q21" s="26"/>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>20499.2</v>
+        <v>0</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>200.64</v>
+        <v>0</v>
       </c>
       <c r="T21" s="27">
         <f t="shared" si="5"/>
-        <v>160.63999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -26901,9 +26865,7 @@
       <c r="C24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="29">
-        <v>18711</v>
-      </c>
+      <c r="D24" s="29"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -26914,31 +26876,29 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20">
         <f t="shared" si="0"/>
-        <v>18711</v>
+        <v>0</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="1"/>
-        <v>18711</v>
+        <v>0</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>514.55250000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" s="26"/>
-      <c r="Q24" s="26">
-        <v>96</v>
-      </c>
+      <c r="Q24" s="26"/>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
-        <v>18100.447499999998</v>
+        <v>0</v>
       </c>
       <c r="S24" s="25">
         <f t="shared" si="4"/>
-        <v>177.75450000000001</v>
+        <v>0</v>
       </c>
       <c r="T24" s="27">
         <f t="shared" si="5"/>
-        <v>81.754500000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -26951,9 +26911,7 @@
       <c r="C25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="29">
-        <v>14077</v>
-      </c>
+      <c r="D25" s="29"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -26964,31 +26922,29 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>14077</v>
+        <v>0</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>14077</v>
+        <v>0</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>387.11750000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" s="26"/>
-      <c r="Q25" s="26">
-        <v>90</v>
-      </c>
+      <c r="Q25" s="26"/>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>13599.8825</v>
+        <v>0</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>133.73149999999998</v>
+        <v>0</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>43.731499999999983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -27047,46 +27003,40 @@
       <c r="C27" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="37">
-        <v>53659</v>
-      </c>
+      <c r="D27" s="37"/>
       <c r="E27" s="38"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
-      <c r="K27" s="31">
-        <v>5</v>
-      </c>
+      <c r="K27" s="31"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>53659</v>
+        <v>0</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>54569</v>
+        <v>0</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>1475.6224999999999</v>
+        <v>0</v>
       </c>
       <c r="P27" s="41"/>
-      <c r="Q27" s="41">
-        <v>300</v>
-      </c>
+      <c r="Q27" s="41"/>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>52793.377500000002</v>
+        <v>0</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>509.76049999999998</v>
+        <v>0</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>209.76049999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27097,15 +27047,15 @@
       <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>286320</v>
+        <v>0</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -27125,7 +27075,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -27133,15 +27083,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>287120</v>
+        <v>0</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>288940</v>
+        <v>0</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>7895.7999999999993</v>
+        <v>0</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -27149,19 +27099,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>1708</v>
+        <v>0</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>279336.2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>2727.6399999999994</v>
+        <v>0</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>1019.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27172,15 +27122,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -27200,7 +27150,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -27544,15 +27494,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
@@ -27572,7 +27522,7 @@
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
@@ -28722,15 +28672,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -28750,7 +28700,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -29094,15 +29044,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
@@ -29122,7 +29072,7 @@
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
@@ -30272,15 +30222,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -30300,7 +30250,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -32233,15 +32183,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
@@ -32261,7 +32211,7 @@
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
@@ -33411,15 +33361,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -33439,7 +33389,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -33783,15 +33733,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
@@ -33811,7 +33761,7 @@
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
@@ -34961,15 +34911,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -34989,7 +34939,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -35333,15 +35283,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
@@ -35361,7 +35311,7 @@
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
@@ -36511,15 +36461,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -36539,7 +36489,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -36883,15 +36833,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
@@ -36911,7 +36861,7 @@
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
@@ -38061,15 +38011,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -38089,7 +38039,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -38433,15 +38383,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
@@ -38461,7 +38411,7 @@
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
@@ -39611,15 +39561,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -39639,7 +39589,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -39983,15 +39933,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
@@ -40011,7 +39961,7 @@
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
@@ -41161,15 +41111,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -41189,7 +41139,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -41533,15 +41483,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
@@ -41561,7 +41511,7 @@
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
@@ -42711,15 +42661,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -42739,7 +42689,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -43083,15 +43033,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
@@ -43111,7 +43061,7 @@
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
@@ -44261,15 +44211,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -44289,7 +44239,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -44633,15 +44583,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
@@ -44661,7 +44611,7 @@
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
@@ -45811,15 +45761,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -45839,7 +45789,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -46183,15 +46133,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
@@ -46211,7 +46161,7 @@
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
@@ -47361,15 +47311,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -47389,7 +47339,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -49343,15 +49293,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
@@ -49371,7 +49321,7 @@
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
@@ -50521,15 +50471,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -50549,7 +50499,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -50893,15 +50843,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
@@ -50921,7 +50871,7 @@
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
@@ -52071,15 +52021,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -52099,7 +52049,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -52613,7 +52563,7 @@
       </c>
       <c r="D7" s="21">
         <f>'1'!D7+'2'!D7+'3'!D7+'4'!D7+'5'!D7+'6'!D7+'7'!D7+'8'!D7+'9'!D7+'10'!D7+'11'!D7+'12'!D7+'13'!D7+'14'!D7+'15'!D7+'16'!D7+'17'!D7+'18'!D7+'19'!D7+'20'!D7+'21'!D7+'22'!D7+'23'!D7+'24'!D7+'25'!D7+'26'!D7+'27'!D7+'28'!D7+'29'!D7+'30'!D7+'31'!D7</f>
-        <v>168867</v>
+        <v>147353</v>
       </c>
       <c r="E7" s="21">
         <f>'1'!E7+'2'!E7+'3'!E7+'4'!E7+'5'!E7+'6'!E7+'7'!E7+'8'!E7+'9'!E7+'10'!E7+'11'!E7+'12'!E7+'13'!E7+'14'!E7+'15'!E7+'16'!E7+'17'!E7+'18'!E7+'19'!E7+'20'!E7+'21'!E7+'22'!E7+'23'!E7+'24'!E7+'25'!E7+'26'!E7+'27'!E7+'28'!E7+'29'!E7+'30'!E7+'31'!E7</f>
@@ -52649,32 +52599,32 @@
       </c>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>171567</v>
+        <v>150053</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>173769</v>
+        <v>152255</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>4718.0924999999997</v>
+        <v>4126.4575000000004</v>
       </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="26">
         <f>'1'!Q7+'2'!Q7+'3'!Q7+'4'!Q7+'5'!Q7+'6'!Q7+'7'!Q7+'8'!Q7+'9'!Q7+'10'!Q7+'11'!Q7+'12'!Q7+'13'!Q7+'14'!Q7+'15'!Q7+'16'!Q7+'17'!Q7+'18'!Q7+'19'!Q7+'20'!Q7+'21'!Q7+'22'!Q7+'23'!Q7+'24'!Q7+'25'!Q7+'26'!Q7+'27'!Q7+'28'!Q7+'29'!Q7+'30'!Q7+'31'!Q7</f>
-        <v>774</v>
+        <v>671</v>
       </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>168276.9075</v>
+        <v>147457.54250000001</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>1629.8865000000001</v>
+        <v>1425.5035</v>
       </c>
       <c r="T7" s="26">
         <f>S7-Q7</f>
-        <v>855.88650000000007</v>
+        <v>754.50350000000003</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52765,7 +52715,7 @@
       </c>
       <c r="D9" s="21">
         <f>'1'!D9+'2'!D9+'3'!D9+'4'!D9+'5'!D9+'6'!D9+'7'!D9+'8'!D9+'9'!D9+'10'!D9+'11'!D9+'12'!D9+'13'!D9+'14'!D9+'15'!D9+'16'!D9+'17'!D9+'18'!D9+'19'!D9+'20'!D9+'21'!D9+'22'!D9+'23'!D9+'24'!D9+'25'!D9+'26'!D9+'27'!D9+'28'!D9+'29'!D9+'30'!D9+'31'!D9</f>
-        <v>225465</v>
+        <v>206055</v>
       </c>
       <c r="E9" s="21">
         <f>'1'!E9+'2'!E9+'3'!E9+'4'!E9+'5'!E9+'6'!E9+'7'!E9+'8'!E9+'9'!E9+'10'!E9+'11'!E9+'12'!E9+'13'!E9+'14'!E9+'15'!E9+'16'!E9+'17'!E9+'18'!E9+'19'!E9+'20'!E9+'21'!E9+'22'!E9+'23'!E9+'24'!E9+'25'!E9+'26'!E9+'27'!E9+'28'!E9+'29'!E9+'30'!E9+'31'!E9</f>
@@ -52801,32 +52751,32 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>225465</v>
+        <v>206055</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>225465</v>
+        <v>206055</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>6200.2875000000004</v>
+        <v>5666.5124999999998</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26">
         <f>'1'!Q9+'2'!Q9+'3'!Q9+'4'!Q9+'5'!Q9+'6'!Q9+'7'!Q9+'8'!Q9+'9'!Q9+'10'!Q9+'11'!Q9+'12'!Q9+'13'!Q9+'14'!Q9+'15'!Q9+'16'!Q9+'17'!Q9+'18'!Q9+'19'!Q9+'20'!Q9+'21'!Q9+'22'!Q9+'23'!Q9+'24'!Q9+'25'!Q9+'26'!Q9+'27'!Q9+'28'!Q9+'29'!Q9+'30'!Q9+'31'!Q9</f>
-        <v>1201</v>
+        <v>1095</v>
       </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>218063.71249999999</v>
+        <v>199293.48749999999</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>2141.9175</v>
+        <v>1957.5225</v>
       </c>
       <c r="T9" s="26">
         <f t="shared" si="5"/>
-        <v>940.91750000000002</v>
+        <v>862.52250000000004</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53145,7 +53095,7 @@
       </c>
       <c r="D14" s="21">
         <f>'1'!D14+'2'!D14+'3'!D14+'4'!D14+'5'!D14+'6'!D14+'7'!D14+'8'!D14+'9'!D14+'10'!D14+'11'!D14+'12'!D14+'13'!D14+'14'!D14+'15'!D14+'16'!D14+'17'!D14+'18'!D14+'19'!D14+'20'!D14+'21'!D14+'22'!D14+'23'!D14+'24'!D14+'25'!D14+'26'!D14+'27'!D14+'28'!D14+'29'!D14+'30'!D14+'31'!D14</f>
-        <v>214878</v>
+        <v>214364</v>
       </c>
       <c r="E14" s="21">
         <f>'1'!E14+'2'!E14+'3'!E14+'4'!E14+'5'!E14+'6'!E14+'7'!E14+'8'!E14+'9'!E14+'10'!E14+'11'!E14+'12'!E14+'13'!E14+'14'!E14+'15'!E14+'16'!E14+'17'!E14+'18'!E14+'19'!E14+'20'!E14+'21'!E14+'22'!E14+'23'!E14+'24'!E14+'25'!E14+'26'!E14+'27'!E14+'28'!E14+'29'!E14+'30'!E14+'31'!E14</f>
@@ -53181,15 +53131,15 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>215878</v>
+        <v>215364</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>217525</v>
+        <v>217011</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>5936.6450000000004</v>
+        <v>5922.51</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
@@ -53198,15 +53148,15 @@
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>210956.35500000001</v>
+        <v>210456.49</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>2050.8409999999999</v>
+        <v>2045.9579999999999</v>
       </c>
       <c r="T14" s="26">
         <f t="shared" si="5"/>
-        <v>1418.8409999999999</v>
+        <v>1413.9579999999999</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53221,7 +53171,7 @@
       </c>
       <c r="D15" s="21">
         <f>'1'!D15+'2'!D15+'3'!D15+'4'!D15+'5'!D15+'6'!D15+'7'!D15+'8'!D15+'9'!D15+'10'!D15+'11'!D15+'12'!D15+'13'!D15+'14'!D15+'15'!D15+'16'!D15+'17'!D15+'18'!D15+'19'!D15+'20'!D15+'21'!D15+'22'!D15+'23'!D15+'24'!D15+'25'!D15+'26'!D15+'27'!D15+'28'!D15+'29'!D15+'30'!D15+'31'!D15</f>
-        <v>270166</v>
+        <v>231732</v>
       </c>
       <c r="E15" s="21">
         <f>'1'!E15+'2'!E15+'3'!E15+'4'!E15+'5'!E15+'6'!E15+'7'!E15+'8'!E15+'9'!E15+'10'!E15+'11'!E15+'12'!E15+'13'!E15+'14'!E15+'15'!E15+'16'!E15+'17'!E15+'18'!E15+'19'!E15+'20'!E15+'21'!E15+'22'!E15+'23'!E15+'24'!E15+'25'!E15+'26'!E15+'27'!E15+'28'!E15+'29'!E15+'30'!E15+'31'!E15</f>
@@ -53257,32 +53207,32 @@
       </c>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>274256</v>
+        <v>235822</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>281606</v>
+        <v>243172</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>7542.04</v>
+        <v>6485.1050000000005</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26">
         <f>'1'!Q15+'2'!Q15+'3'!Q15+'4'!Q15+'5'!Q15+'6'!Q15+'7'!Q15+'8'!Q15+'9'!Q15+'10'!Q15+'11'!Q15+'12'!Q15+'13'!Q15+'14'!Q15+'15'!Q15+'16'!Q15+'17'!Q15+'18'!Q15+'19'!Q15+'20'!Q15+'21'!Q15+'22'!Q15+'23'!Q15+'24'!Q15+'25'!Q15+'26'!Q15+'27'!Q15+'28'!Q15+'29'!Q15+'30'!Q15+'31'!Q15</f>
-        <v>1395</v>
+        <v>1117</v>
       </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>272668.96000000002</v>
+        <v>235569.89499999999</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>2605.4319999999998</v>
+        <v>2240.3089999999997</v>
       </c>
       <c r="T15" s="26">
         <f t="shared" si="5"/>
-        <v>1210.4319999999998</v>
+        <v>1123.3089999999997</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53297,15 +53247,15 @@
       </c>
       <c r="D16" s="21">
         <f>'1'!D16+'2'!D16+'3'!D16+'4'!D16+'5'!D16+'6'!D16+'7'!D16+'8'!D16+'9'!D16+'10'!D16+'11'!D16+'12'!D16+'13'!D16+'14'!D16+'15'!D16+'16'!D16+'17'!D16+'18'!D16+'19'!D16+'20'!D16+'21'!D16+'22'!D16+'23'!D16+'24'!D16+'25'!D16+'26'!D16+'27'!D16+'28'!D16+'29'!D16+'30'!D16+'31'!D16</f>
-        <v>265175</v>
+        <v>189892</v>
       </c>
       <c r="E16" s="21">
         <f>'1'!E16+'2'!E16+'3'!E16+'4'!E16+'5'!E16+'6'!E16+'7'!E16+'8'!E16+'9'!E16+'10'!E16+'11'!E16+'12'!E16+'13'!E16+'14'!E16+'15'!E16+'16'!E16+'17'!E16+'18'!E16+'19'!E16+'20'!E16+'21'!E16+'22'!E16+'23'!E16+'24'!E16+'25'!E16+'26'!E16+'27'!E16+'28'!E16+'29'!E16+'30'!E16+'31'!E16</f>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F16" s="21">
         <f>'1'!F16+'2'!F16+'3'!F16+'4'!F16+'5'!F16+'6'!F16+'7'!F16+'8'!F16+'9'!F16+'10'!F16+'11'!F16+'12'!F16+'13'!F16+'14'!F16+'15'!F16+'16'!F16+'17'!F16+'18'!F16+'19'!F16+'20'!F16+'21'!F16+'22'!F16+'23'!F16+'24'!F16+'25'!F16+'26'!F16+'27'!F16+'28'!F16+'29'!F16+'30'!F16+'31'!F16</f>
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="G16" s="21">
         <f>'1'!G16+'2'!G16+'3'!G16+'4'!G16+'5'!G16+'6'!G16+'7'!G16+'8'!G16+'9'!G16+'10'!G16+'11'!G16+'12'!G16+'13'!G16+'14'!G16+'15'!G16+'16'!G16+'17'!G16+'18'!G16+'19'!G16+'20'!G16+'21'!G16+'22'!G16+'23'!G16+'24'!G16+'25'!G16+'26'!G16+'27'!G16+'28'!G16+'29'!G16+'30'!G16+'31'!G16</f>
@@ -53325,7 +53275,7 @@
       </c>
       <c r="K16" s="21">
         <f>'1'!K16+'2'!K16+'3'!K16+'4'!K16+'5'!K16+'6'!K16+'7'!K16+'8'!K16+'9'!K16+'10'!K16+'11'!K16+'12'!K16+'13'!K16+'14'!K16+'15'!K16+'16'!K16+'17'!K16+'18'!K16+'19'!K16+'20'!K16+'21'!K16+'22'!K16+'23'!K16+'24'!K16+'25'!K16+'26'!K16+'27'!K16+'28'!K16+'29'!K16+'30'!K16+'31'!K16</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L16" s="21">
         <f>'1'!L16+'2'!L16+'3'!L16+'4'!L16+'5'!L16+'6'!L16+'7'!L16+'8'!L16+'9'!L16+'10'!L16+'11'!L16+'12'!L16+'13'!L16+'14'!L16+'15'!L16+'16'!L16+'17'!L16+'18'!L16+'19'!L16+'20'!L16+'21'!L16+'22'!L16+'23'!L16+'24'!L16+'25'!L16+'26'!L16+'27'!L16+'28'!L16+'29'!L16+'30'!L16+'31'!L16</f>
@@ -53333,32 +53283,32 @@
       </c>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>280315</v>
+        <v>204432</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>294833</v>
+        <v>218040</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>7708.6625000000004</v>
+        <v>5621.88</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26">
         <f>'1'!Q16+'2'!Q16+'3'!Q16+'4'!Q16+'5'!Q16+'6'!Q16+'7'!Q16+'8'!Q16+'9'!Q16+'10'!Q16+'11'!Q16+'12'!Q16+'13'!Q16+'14'!Q16+'15'!Q16+'16'!Q16+'17'!Q16+'18'!Q16+'19'!Q16+'20'!Q16+'21'!Q16+'22'!Q16+'23'!Q16+'24'!Q16+'25'!Q16+'26'!Q16+'27'!Q16+'28'!Q16+'29'!Q16+'30'!Q16+'31'!Q16</f>
-        <v>1419</v>
+        <v>868</v>
       </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>285705.33750000002</v>
+        <v>211550.12</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>2662.9924999999998</v>
+        <v>1942.104</v>
       </c>
       <c r="T16" s="26">
         <f t="shared" si="5"/>
-        <v>1243.9924999999998</v>
+        <v>1074.104</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53373,7 +53323,7 @@
       </c>
       <c r="D17" s="21">
         <f>'1'!D17+'2'!D17+'3'!D17+'4'!D17+'5'!D17+'6'!D17+'7'!D17+'8'!D17+'9'!D17+'10'!D17+'11'!D17+'12'!D17+'13'!D17+'14'!D17+'15'!D17+'16'!D17+'17'!D17+'18'!D17+'19'!D17+'20'!D17+'21'!D17+'22'!D17+'23'!D17+'24'!D17+'25'!D17+'26'!D17+'27'!D17+'28'!D17+'29'!D17+'30'!D17+'31'!D17</f>
-        <v>146617</v>
+        <v>124561</v>
       </c>
       <c r="E17" s="21">
         <f>'1'!E17+'2'!E17+'3'!E17+'4'!E17+'5'!E17+'6'!E17+'7'!E17+'8'!E17+'9'!E17+'10'!E17+'11'!E17+'12'!E17+'13'!E17+'14'!E17+'15'!E17+'16'!E17+'17'!E17+'18'!E17+'19'!E17+'20'!E17+'21'!E17+'22'!E17+'23'!E17+'24'!E17+'25'!E17+'26'!E17+'27'!E17+'28'!E17+'29'!E17+'30'!E17+'31'!E17</f>
@@ -53381,7 +53331,7 @@
       </c>
       <c r="F17" s="21">
         <f>'1'!F17+'2'!F17+'3'!F17+'4'!F17+'5'!F17+'6'!F17+'7'!F17+'8'!F17+'9'!F17+'10'!F17+'11'!F17+'12'!F17+'13'!F17+'14'!F17+'15'!F17+'16'!F17+'17'!F17+'18'!F17+'19'!F17+'20'!F17+'21'!F17+'22'!F17+'23'!F17+'24'!F17+'25'!F17+'26'!F17+'27'!F17+'28'!F17+'29'!F17+'30'!F17+'31'!F17</f>
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G17" s="21">
         <f>'1'!G17+'2'!G17+'3'!G17+'4'!G17+'5'!G17+'6'!G17+'7'!G17+'8'!G17+'9'!G17+'10'!G17+'11'!G17+'12'!G17+'13'!G17+'14'!G17+'15'!G17+'16'!G17+'17'!G17+'18'!G17+'19'!G17+'20'!G17+'21'!G17+'22'!G17+'23'!G17+'24'!G17+'25'!G17+'26'!G17+'27'!G17+'28'!G17+'29'!G17+'30'!G17+'31'!G17</f>
@@ -53409,32 +53359,32 @@
       </c>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>156417</v>
+        <v>134161</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>156417</v>
+        <v>134161</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>4301.4674999999997</v>
+        <v>3689.4275000000002</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26">
         <f>'1'!Q17+'2'!Q17+'3'!Q17+'4'!Q17+'5'!Q17+'6'!Q17+'7'!Q17+'8'!Q17+'9'!Q17+'10'!Q17+'11'!Q17+'12'!Q17+'13'!Q17+'14'!Q17+'15'!Q17+'16'!Q17+'17'!Q17+'18'!Q17+'19'!Q17+'20'!Q17+'21'!Q17+'22'!Q17+'23'!Q17+'24'!Q17+'25'!Q17+'26'!Q17+'27'!Q17+'28'!Q17+'29'!Q17+'30'!Q17+'31'!Q17</f>
-        <v>855</v>
+        <v>711</v>
       </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>151260.5325</v>
+        <v>129760.57249999999</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>1485.9614999999999</v>
+        <v>1274.5294999999999</v>
       </c>
       <c r="T17" s="26">
         <f t="shared" si="5"/>
-        <v>630.96149999999989</v>
+        <v>563.52949999999987</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53601,7 +53551,7 @@
       </c>
       <c r="D20" s="21">
         <f>'1'!D20+'2'!D20+'3'!D20+'4'!D20+'5'!D20+'6'!D20+'7'!D20+'8'!D20+'9'!D20+'10'!D20+'11'!D20+'12'!D20+'13'!D20+'14'!D20+'15'!D20+'16'!D20+'17'!D20+'18'!D20+'19'!D20+'20'!D20+'21'!D20+'22'!D20+'23'!D20+'24'!D20+'25'!D20+'26'!D20+'27'!D20+'28'!D20+'29'!D20+'30'!D20+'31'!D20</f>
-        <v>28258</v>
+        <v>26716</v>
       </c>
       <c r="E20" s="21">
         <f>'1'!E20+'2'!E20+'3'!E20+'4'!E20+'5'!E20+'6'!E20+'7'!E20+'8'!E20+'9'!E20+'10'!E20+'11'!E20+'12'!E20+'13'!E20+'14'!E20+'15'!E20+'16'!E20+'17'!E20+'18'!E20+'19'!E20+'20'!E20+'21'!E20+'22'!E20+'23'!E20+'24'!E20+'25'!E20+'26'!E20+'27'!E20+'28'!E20+'29'!E20+'30'!E20+'31'!E20</f>
@@ -53637,15 +53587,15 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>28258</v>
+        <v>26716</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>28258</v>
+        <v>26716</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>777.09500000000003</v>
+        <v>734.69</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26">
@@ -53654,15 +53604,15 @@
       </c>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>27366.904999999999</v>
+        <v>25867.31</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>268.45099999999996</v>
+        <v>253.80199999999999</v>
       </c>
       <c r="T20" s="26">
         <f t="shared" si="5"/>
-        <v>154.45099999999996</v>
+        <v>139.80199999999999</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53677,7 +53627,7 @@
       </c>
       <c r="D21" s="21">
         <f>'1'!D21+'2'!D21+'3'!D21+'4'!D21+'5'!D21+'6'!D21+'7'!D21+'8'!D21+'9'!D21+'10'!D21+'11'!D21+'12'!D21+'13'!D21+'14'!D21+'15'!D21+'16'!D21+'17'!D21+'18'!D21+'19'!D21+'20'!D21+'21'!D21+'22'!D21+'23'!D21+'24'!D21+'25'!D21+'26'!D21+'27'!D21+'28'!D21+'29'!D21+'30'!D21+'31'!D21</f>
-        <v>117452</v>
+        <v>96332</v>
       </c>
       <c r="E21" s="21">
         <f>'1'!E21+'2'!E21+'3'!E21+'4'!E21+'5'!E21+'6'!E21+'7'!E21+'8'!E21+'9'!E21+'10'!E21+'11'!E21+'12'!E21+'13'!E21+'14'!E21+'15'!E21+'16'!E21+'17'!E21+'18'!E21+'19'!E21+'20'!E21+'21'!E21+'22'!E21+'23'!E21+'24'!E21+'25'!E21+'26'!E21+'27'!E21+'28'!E21+'29'!E21+'30'!E21+'31'!E21</f>
@@ -53713,32 +53663,32 @@
       </c>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>118702</v>
+        <v>97582</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>118893</v>
+        <v>97773</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>3264.3049999999998</v>
+        <v>2683.5050000000001</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26">
         <f>'1'!Q21+'2'!Q21+'3'!Q21+'4'!Q21+'5'!Q21+'6'!Q21+'7'!Q21+'8'!Q21+'9'!Q21+'10'!Q21+'11'!Q21+'12'!Q21+'13'!Q21+'14'!Q21+'15'!Q21+'16'!Q21+'17'!Q21+'18'!Q21+'19'!Q21+'20'!Q21+'21'!Q21+'22'!Q21+'23'!Q21+'24'!Q21+'25'!Q21+'26'!Q21+'27'!Q21+'28'!Q21+'29'!Q21+'30'!Q21+'31'!Q21</f>
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>115460.69500000001</v>
+        <v>94961.494999999995</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>1127.6689999999999</v>
+        <v>927.029</v>
       </c>
       <c r="T21" s="26">
         <f t="shared" si="5"/>
-        <v>959.66899999999987</v>
+        <v>799.029</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53905,7 +53855,7 @@
       </c>
       <c r="D24" s="21">
         <f>'1'!D24+'2'!D24+'3'!D24+'4'!D24+'5'!D24+'6'!D24+'7'!D24+'8'!D24+'9'!D24+'10'!D24+'11'!D24+'12'!D24+'13'!D24+'14'!D24+'15'!D24+'16'!D24+'17'!D24+'18'!D24+'19'!D24+'20'!D24+'21'!D24+'22'!D24+'23'!D24+'24'!D24+'25'!D24+'26'!D24+'27'!D24+'28'!D24+'29'!D24+'30'!D24+'31'!D24</f>
-        <v>247886</v>
+        <v>229175</v>
       </c>
       <c r="E24" s="21">
         <f>'1'!E24+'2'!E24+'3'!E24+'4'!E24+'5'!E24+'6'!E24+'7'!E24+'8'!E24+'9'!E24+'10'!E24+'11'!E24+'12'!E24+'13'!E24+'14'!E24+'15'!E24+'16'!E24+'17'!E24+'18'!E24+'19'!E24+'20'!E24+'21'!E24+'22'!E24+'23'!E24+'24'!E24+'25'!E24+'26'!E24+'27'!E24+'28'!E24+'29'!E24+'30'!E24+'31'!E24</f>
@@ -53941,32 +53891,32 @@
       </c>
       <c r="M24" s="20">
         <f t="shared" si="0"/>
-        <v>262206</v>
+        <v>243495</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="1"/>
-        <v>266572</v>
+        <v>247861</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>7210.665</v>
+        <v>6696.1125000000002</v>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26">
         <f>'1'!Q24+'2'!Q24+'3'!Q24+'4'!Q24+'5'!Q24+'6'!Q24+'7'!Q24+'8'!Q24+'9'!Q24+'10'!Q24+'11'!Q24+'12'!Q24+'13'!Q24+'14'!Q24+'15'!Q24+'16'!Q24+'17'!Q24+'18'!Q24+'19'!Q24+'20'!Q24+'21'!Q24+'22'!Q24+'23'!Q24+'24'!Q24+'25'!Q24+'26'!Q24+'27'!Q24+'28'!Q24+'29'!Q24+'30'!Q24+'31'!Q24</f>
-        <v>1127</v>
+        <v>1031</v>
       </c>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
-        <v>258234.33499999999</v>
+        <v>240133.88750000001</v>
       </c>
       <c r="S24" s="25">
         <f t="shared" si="4"/>
-        <v>2490.9569999999999</v>
+        <v>2313.2024999999999</v>
       </c>
       <c r="T24" s="26">
         <f t="shared" si="5"/>
-        <v>1363.9569999999999</v>
+        <v>1282.2024999999999</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53981,7 +53931,7 @@
       </c>
       <c r="D25" s="21">
         <f>'1'!D25+'2'!D25+'3'!D25+'4'!D25+'5'!D25+'6'!D25+'7'!D25+'8'!D25+'9'!D25+'10'!D25+'11'!D25+'12'!D25+'13'!D25+'14'!D25+'15'!D25+'16'!D25+'17'!D25+'18'!D25+'19'!D25+'20'!D25+'21'!D25+'22'!D25+'23'!D25+'24'!D25+'25'!D25+'26'!D25+'27'!D25+'28'!D25+'29'!D25+'30'!D25+'31'!D25</f>
-        <v>136637</v>
+        <v>122560</v>
       </c>
       <c r="E25" s="21">
         <f>'1'!E25+'2'!E25+'3'!E25+'4'!E25+'5'!E25+'6'!E25+'7'!E25+'8'!E25+'9'!E25+'10'!E25+'11'!E25+'12'!E25+'13'!E25+'14'!E25+'15'!E25+'16'!E25+'17'!E25+'18'!E25+'19'!E25+'20'!E25+'21'!E25+'22'!E25+'23'!E25+'24'!E25+'25'!E25+'26'!E25+'27'!E25+'28'!E25+'29'!E25+'30'!E25+'31'!E25</f>
@@ -54017,32 +53967,32 @@
       </c>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>136637</v>
+        <v>122560</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>138165</v>
+        <v>124088</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>3757.5174999999999</v>
+        <v>3370.4</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26">
         <f>'1'!Q25+'2'!Q25+'3'!Q25+'4'!Q25+'5'!Q25+'6'!Q25+'7'!Q25+'8'!Q25+'9'!Q25+'10'!Q25+'11'!Q25+'12'!Q25+'13'!Q25+'14'!Q25+'15'!Q25+'16'!Q25+'17'!Q25+'18'!Q25+'19'!Q25+'20'!Q25+'21'!Q25+'22'!Q25+'23'!Q25+'24'!Q25+'25'!Q25+'26'!Q25+'27'!Q25+'28'!Q25+'29'!Q25+'30'!Q25+'31'!Q25</f>
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>133984.48250000001</v>
+        <v>120384.6</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>1298.0515</v>
+        <v>1164.32</v>
       </c>
       <c r="T25" s="26">
         <f t="shared" si="5"/>
-        <v>875.05150000000003</v>
+        <v>831.31999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54133,7 +54083,7 @@
       </c>
       <c r="D27" s="21">
         <f>'1'!D27+'2'!D27+'3'!D27+'4'!D27+'5'!D27+'6'!D27+'7'!D27+'8'!D27+'9'!D27+'10'!D27+'11'!D27+'12'!D27+'13'!D27+'14'!D27+'15'!D27+'16'!D27+'17'!D27+'18'!D27+'19'!D27+'20'!D27+'21'!D27+'22'!D27+'23'!D27+'24'!D27+'25'!D27+'26'!D27+'27'!D27+'28'!D27+'29'!D27+'30'!D27+'31'!D27</f>
-        <v>164646</v>
+        <v>110987</v>
       </c>
       <c r="E27" s="21">
         <f>'1'!E27+'2'!E27+'3'!E27+'4'!E27+'5'!E27+'6'!E27+'7'!E27+'8'!E27+'9'!E27+'10'!E27+'11'!E27+'12'!E27+'13'!E27+'14'!E27+'15'!E27+'16'!E27+'17'!E27+'18'!E27+'19'!E27+'20'!E27+'21'!E27+'22'!E27+'23'!E27+'24'!E27+'25'!E27+'26'!E27+'27'!E27+'28'!E27+'29'!E27+'30'!E27+'31'!E27</f>
@@ -54161,7 +54111,7 @@
       </c>
       <c r="K27" s="21">
         <f>'1'!K27+'2'!K27+'3'!K27+'4'!K27+'5'!K27+'6'!K27+'7'!K27+'8'!K27+'9'!K27+'10'!K27+'11'!K27+'12'!K27+'13'!K27+'14'!K27+'15'!K27+'16'!K27+'17'!K27+'18'!K27+'19'!K27+'20'!K27+'21'!K27+'22'!K27+'23'!K27+'24'!K27+'25'!K27+'26'!K27+'27'!K27+'28'!K27+'29'!K27+'30'!K27+'31'!K27</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L27" s="21">
         <f>'1'!L27+'2'!L27+'3'!L27+'4'!L27+'5'!L27+'6'!L27+'7'!L27+'8'!L27+'9'!L27+'10'!L27+'11'!L27+'12'!L27+'13'!L27+'14'!L27+'15'!L27+'16'!L27+'17'!L27+'18'!L27+'19'!L27+'20'!L27+'21'!L27+'22'!L27+'23'!L27+'24'!L27+'25'!L27+'26'!L27+'27'!L27+'28'!L27+'29'!L27+'30'!L27+'31'!L27</f>
@@ -54169,32 +54119,32 @@
       </c>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>165146</v>
+        <v>111487</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>168977</v>
+        <v>114408</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>4541.5150000000003</v>
+        <v>3065.8924999999999</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="26">
         <f>'1'!Q27+'2'!Q27+'3'!Q27+'4'!Q27+'5'!Q27+'6'!Q27+'7'!Q27+'8'!Q27+'9'!Q27+'10'!Q27+'11'!Q27+'12'!Q27+'13'!Q27+'14'!Q27+'15'!Q27+'16'!Q27+'17'!Q27+'18'!Q27+'19'!Q27+'20'!Q27+'21'!Q27+'22'!Q27+'23'!Q27+'24'!Q27+'25'!Q27+'26'!Q27+'27'!Q27+'28'!Q27+'29'!Q27+'30'!Q27+'31'!Q27</f>
-        <v>671</v>
+        <v>371</v>
       </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>163764.48499999999</v>
+        <v>110971.1075</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>1568.8869999999999</v>
+        <v>1059.1265000000001</v>
       </c>
       <c r="T27" s="41">
         <f t="shared" si="5"/>
-        <v>897.88699999999994</v>
+        <v>688.12650000000008</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -54205,15 +54155,15 @@
       <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>3022601</v>
+        <v>2736281</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>3350</v>
+        <v>3290</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -54233,7 +54183,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -54241,15 +54191,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>3092691</v>
+        <v>2805571</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>3175702</v>
+        <v>2886762</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>85049.002499999988</v>
+        <v>77153.20249999997</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -54257,19 +54207,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>12679</v>
+        <v>10971</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>3077973.9974999996</v>
+        <v>2798637.7974999999</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>29380.564499999997</v>
+        <v>26652.924499999997</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>16701.564499999997</v>
+        <v>15681.924499999997</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54280,15 +54230,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>247687</v>
+        <v>534007</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>4890</v>
+        <v>4950</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -54308,7 +54258,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -54351,11 +54301,11 @@
       </c>
       <c r="E31" s="53">
         <f>E29*20+F29*10+G29*9+H29*9</f>
-        <v>52700</v>
+        <v>53500</v>
       </c>
       <c r="F31" s="53">
         <f>E31-(E31*3.75%)</f>
-        <v>50723.75</v>
+        <v>51493.75</v>
       </c>
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
@@ -54367,7 +54317,7 @@
       <c r="H32" s="54"/>
       <c r="I32" s="54">
         <f>E28*20+F28*10+G28*9+H28*9</f>
-        <v>70090</v>
+        <v>69290</v>
       </c>
       <c r="J32" s="54"/>
       <c r="K32" s="54"/>
